--- a/materials/Green_Taxo.xlsx
+++ b/materials/Green_Taxo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlorans\Documents\ClimateInvestingNLP\materials\specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlorans\Documents\ClimateInvestingNLP\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A1F38-5566-44C2-BAB6-E909995EE836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{208E05CD-183D-4EB8-9AFD-B35F599A4977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{4FC0EE15-120B-4526-9ADE-E0ED7501A6A5}"/>
   </bookViews>
